--- a/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,13 +1015,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>10.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.36</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1333,13 +1376,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>10.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.69</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="4">
@@ -1634,13 +1699,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>10.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,509 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516970</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.4714</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7782</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1137</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9675</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6858</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4072</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2000</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1800</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>28.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1611</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1421</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -966,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>516970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>110.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7187</t>
+          <t>5.5210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1055,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.99</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4216</t>
+          <t>0.6219</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1093,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516970</t>
+          <t>012541</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+          <t>金鹰产业升级混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.6051</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1131,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001791</t>
+          <t>516950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合A</t>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36.66</t>
+          <t>98.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.5351</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1169,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000757</t>
+          <t>013082</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华富智慧城市灵活配置混合</t>
+          <t>信诚中证基建工程指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.2287</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1207,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>61.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1245,36 +833,226 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001792</t>
+          <t>009246</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合C</t>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>36.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,36 +1401,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516970</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>110.20</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.48</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.5210</t>
+          <t>0.7187</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1661,36 +1439,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>516950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>97.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6219</t>
+          <t>0.4216</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1699,36 +1477,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012541</t>
+          <t>516970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰产业升级混合型证券投资基金A</t>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6051</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1737,36 +1515,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>001791</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>大成绝对收益策略混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.39</t>
+          <t>36.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5351</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1775,36 +1553,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013082</t>
+          <t>000757</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）C</t>
+          <t>华富智慧城市灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2287</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1813,32 +1591,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.22</t>
+          <t>78.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1851,226 +1629,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009246</t>
+          <t>001792</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
+          <t>大成绝对收益策略混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>36.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0724</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012542</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰产业升级混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006061</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006064</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>红土创新增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2084,96 +1672,508 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.76</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.16</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>7.76</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.69</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.36</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.16</v>
       </c>
     </row>
@@ -549,6 +566,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1060,7 +1665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1344,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1666,7 +2271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601868-中国能建.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>6.47</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>7.76</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.69</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.36</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.16</v>
       </c>
     </row>
@@ -566,6 +583,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河收益混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006738</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银添慧债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006739</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银添慧债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1665,7 +2724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1949,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,7 +3330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
